--- a/scheme/scheme.xlsx
+++ b/scheme/scheme.xlsx
@@ -4,24 +4,205 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="10185"/>
+    <workbookView windowWidth="27675" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="地图规则" sheetId="1" r:id="rId1"/>
+    <sheet name="基础规则" sheetId="1" r:id="rId1"/>
+    <sheet name="怪物信息" sheetId="2" r:id="rId2"/>
+    <sheet name="弹道信息" sheetId="3" r:id="rId3"/>
+    <sheet name="补充信息" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+  <si>
+    <t>计划步骤：</t>
+  </si>
+  <si>
+    <t>1.先出大概方向</t>
+  </si>
+  <si>
+    <t>2.调整体感</t>
+  </si>
+  <si>
+    <t>3.调整细节</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>地图向下延伸场景内容随机出现</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   把屏幕纵向划分格子区域A1-A10,B1-B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   每次向下出现一像素内容以此类推，向下计算同屏外的N个格子，每出现一个格子向下类推</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   每个纵向向下刷新的时候按概率刷新不同格子类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   A1和B1固定墙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   其他格子对应刷新概率(万分比)，以最小数为刷新起始</t>
+  </si>
+  <si>
+    <t>关卡刷新配置</t>
+  </si>
+  <si>
+    <t>关卡</t>
+  </si>
+  <si>
+    <t>格子区间1</t>
+  </si>
+  <si>
+    <t>BOSSID</t>
+  </si>
+  <si>
+    <t>阻挡刷新（纵数,阻挡类型,万分比）</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>A2,1,5000|B3,2,5000</t>
+  </si>
+  <si>
+    <t>阻挡配置</t>
+  </si>
+  <si>
+    <t>类型描述</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>功能描述</t>
+  </si>
+  <si>
+    <t>像素
+（长,宽）以墙宽度为1</t>
+  </si>
+  <si>
+    <t>边墙</t>
+  </si>
+  <si>
+    <t>不可击破也不可穿越</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>阻挡格子1</t>
+  </si>
+  <si>
+    <t>可被击破不可穿过</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>阻挡格子2</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>阻挡格子3</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>小怪刷新配置</t>
+  </si>
+  <si>
+    <t>小怪id</t>
+  </si>
+  <si>
+    <t>可出现的范围
+（关卡,格子区间）</t>
+  </si>
+  <si>
+    <t>出现的概率(多组匹配前一列)</t>
+  </si>
+  <si>
+    <t>1,1-100|1,101-200|</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,14 +212,117 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -53,12 +337,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -66,57 +366,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,52 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -181,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,61 +398,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,131 +602,119 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -400,6 +734,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -414,26 +763,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,15 +779,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,167 +797,227 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,16 +1368,874 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A2:AB57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
+    <col min="2" max="22" width="2.375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9" style="2"/>
+    <col min="24" max="24" width="21.5" style="2" customWidth="1"/>
+    <col min="25" max="25" width="20.5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="31.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="22" style="2" customWidth="1"/>
+    <col min="28" max="28" width="36" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="1" customFormat="1" spans="23:24">
+      <c r="W2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="12"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="23:24">
+      <c r="W3" s="12"/>
+      <c r="X3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="23:24">
+      <c r="W4" s="12"/>
+      <c r="X4" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="23:24">
+      <c r="W5" s="12"/>
+      <c r="X5" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="13"/>
+      <c r="W8" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="U9" s="15"/>
+      <c r="W9" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="U10" s="15"/>
+      <c r="W10" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="U11" s="15"/>
+      <c r="W11" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="U12" s="15"/>
+      <c r="W12" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="U13" s="15"/>
+      <c r="W13" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="U14" s="15"/>
+    </row>
+    <row r="15" ht="18.75" spans="1:24">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="U15" s="15"/>
+      <c r="X15" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:28">
+      <c r="A16" s="4">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="U16" s="15"/>
+      <c r="X16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="4">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="U17" s="15"/>
+      <c r="X17" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="20">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB17" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="4">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="U18" s="15"/>
+      <c r="X18" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>101</v>
+      </c>
+      <c r="Z18" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB18" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="4">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="U19" s="15"/>
+      <c r="X19" s="20">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="20">
+        <v>100</v>
+      </c>
+      <c r="AA19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB19" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="4">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="U20" s="15"/>
+      <c r="X20" s="20">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="20">
+        <v>101</v>
+      </c>
+      <c r="Z20" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB20" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="4">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="U21" s="15"/>
+      <c r="X21" s="20">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="20">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB21" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="4">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="U22" s="15"/>
+      <c r="X22" s="20">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="20">
+        <v>101</v>
+      </c>
+      <c r="Z22" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB22" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="4">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="U23" s="15"/>
+      <c r="X23" s="20">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="20">
+        <v>201</v>
+      </c>
+      <c r="Z23" s="20">
+        <v>300</v>
+      </c>
+      <c r="AA23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB23" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="4">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="U24" s="15"/>
+    </row>
+    <row r="25" ht="18.75" spans="1:24">
+      <c r="A25" s="4">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="U25" s="15"/>
+      <c r="X25" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" ht="28.5" spans="1:27">
+      <c r="A26" s="4">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="U26" s="15"/>
+      <c r="X26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="4">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="U27" s="15"/>
+      <c r="X27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y27" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA27" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:27">
+      <c r="A28" s="4">
+        <v>21</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="15"/>
+      <c r="X28" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y28" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA28" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:27">
+      <c r="A29" s="4">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="8"/>
+      <c r="U29" s="15"/>
+      <c r="X29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y29" s="20">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA29" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="4">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="8"/>
+      <c r="U30" s="15"/>
+      <c r="X30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y30" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA30" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="4">
+        <v>24</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="8"/>
+      <c r="U31" s="15"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="4">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="U32" s="15"/>
+    </row>
+    <row r="33" ht="18.75" spans="1:24">
+      <c r="A33" s="4">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="8"/>
+      <c r="U33" s="15"/>
+      <c r="X33" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="1:26">
+      <c r="A34" s="4">
+        <v>27</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="8"/>
+      <c r="U34" s="15"/>
+      <c r="X34" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y34" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z34" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="4">
+        <v>28</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="8"/>
+      <c r="U35" s="15"/>
+      <c r="X35" s="21">
+        <v>101</v>
+      </c>
+      <c r="Y35" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z35" s="23">
+        <v>50006000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="4">
+        <v>29</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="U36" s="15"/>
+      <c r="X36" s="21">
+        <v>102</v>
+      </c>
+      <c r="Y36" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z36" s="23">
+        <v>50006000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="4">
+        <v>30</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="8"/>
+      <c r="U37" s="15"/>
+      <c r="X37" s="21">
+        <v>103</v>
+      </c>
+      <c r="Y37" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z37" s="23">
+        <v>50006000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="4">
+        <v>31</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="8"/>
+      <c r="U38" s="15"/>
+      <c r="X38" s="21">
+        <v>104</v>
+      </c>
+      <c r="Y38" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z38" s="23">
+        <v>50006000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="4">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="15"/>
+      <c r="X39" s="21">
+        <v>105</v>
+      </c>
+      <c r="Y39" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z39" s="23">
+        <v>50006000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="4">
+        <v>33</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="8"/>
+      <c r="U40" s="15"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="4">
+        <v>34</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="8"/>
+      <c r="U41" s="15"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="4">
+        <v>35</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="8"/>
+      <c r="U42" s="15"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="4">
+        <v>36</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="8"/>
+      <c r="U43" s="15"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="4">
+        <v>37</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="U44" s="15"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="4">
+        <v>38</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="8"/>
+      <c r="U45" s="15"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="4">
+        <v>39</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="8"/>
+      <c r="U46" s="15"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="4">
+        <v>40</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="8"/>
+      <c r="U47" s="15"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="4">
+        <v>41</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="8"/>
+      <c r="U48" s="15"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="4">
+        <v>42</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="8"/>
+      <c r="U49" s="15"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="4">
+        <v>43</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="8"/>
+      <c r="U50" s="15"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="4">
+        <v>44</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="8"/>
+      <c r="U51" s="15"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="4">
+        <v>45</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="8"/>
+      <c r="U52" s="15"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="4">
+        <v>46</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="8"/>
+      <c r="U53" s="15"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="4">
+        <v>47</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="8"/>
+      <c r="U54" s="15"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="4">
+        <v>48</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="8"/>
+      <c r="U55" s="15"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="4">
+        <v>49</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="8"/>
+      <c r="U56" s="15"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="4">
+        <v>50</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="8"/>
+      <c r="U57" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/scheme/scheme.xlsx
+++ b/scheme/scheme.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
     <sheet name="怪物信息" sheetId="2" r:id="rId2"/>
-    <sheet name="弹道信息" sheetId="3" r:id="rId3"/>
+    <sheet name="技能和弹道" sheetId="3" r:id="rId3"/>
     <sheet name="补充信息" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>计划步骤：</t>
   </si>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>阻挡刷新（纵数,阻挡类型,万分比）</t>
+  </si>
+  <si>
+    <t>人物下落速度
+（速度这里到时候你给我个参数参考）</t>
   </si>
   <si>
     <t>暂无</t>
@@ -190,6 +194,48 @@
   </si>
   <si>
     <t>1,1-100|1,101-200|</t>
+  </si>
+  <si>
+    <t>角色信息配置</t>
+  </si>
+  <si>
+    <t>角色名-ID</t>
+  </si>
+  <si>
+    <t>角色血量</t>
+  </si>
+  <si>
+    <t>角色模型</t>
+  </si>
+  <si>
+    <t>角色技能</t>
+  </si>
+  <si>
+    <t>弹夹数</t>
+  </si>
+  <si>
+    <t>弹夹填充时间（秒）</t>
+  </si>
+  <si>
+    <t>王健-1</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+  </si>
+  <si>
+    <t>技能id</t>
+  </si>
+  <si>
+    <t>凯峰-2</t>
+  </si>
+  <si>
+    <t>1.角色什么时候会有特殊buff</t>
+  </si>
+  <si>
+    <t>2.角色在不同时候显示特定动作</t>
+  </si>
+  <si>
+    <t>3.刷新格子会不会出现没有可破坏格子的情况卡在哪里</t>
   </si>
 </sst>
 </file>
@@ -246,21 +292,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +328,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -305,6 +360,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -312,9 +375,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,59 +434,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -422,73 +468,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,103 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,11 +746,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,21 +786,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -765,15 +802,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -783,17 +811,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,137 +863,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,9 +1030,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -994,9 +1037,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1007,9 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1368,10 +1405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AB57"/>
+  <dimension ref="A2:AC57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1384,29 +1421,30 @@
     <col min="26" max="26" width="31.25" style="2" customWidth="1"/>
     <col min="27" max="27" width="22" style="2" customWidth="1"/>
     <col min="28" max="28" width="36" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="29" max="29" width="21" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="23:24">
       <c r="W2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="12"/>
+      <c r="X2" s="11"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="23:24">
-      <c r="W3" s="12"/>
+      <c r="W3" s="11"/>
       <c r="X3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="23:24">
-      <c r="W4" s="12"/>
+      <c r="W4" s="11"/>
       <c r="X4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="23:24">
-      <c r="W5" s="12"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1496,8 +1534,8 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="13"/>
-      <c r="W8" s="14" t="s">
+      <c r="U8" s="12"/>
+      <c r="W8" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1507,8 +1545,8 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
-      <c r="U9" s="15"/>
-      <c r="W9" s="16" t="s">
+      <c r="U9" s="14"/>
+      <c r="W9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1518,8 +1556,8 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
-      <c r="U10" s="15"/>
-      <c r="W10" s="16" t="s">
+      <c r="U10" s="14"/>
+      <c r="W10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1529,8 +1567,8 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
-      <c r="U11" s="15"/>
-      <c r="W11" s="16" t="s">
+      <c r="U11" s="14"/>
+      <c r="W11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1540,8 +1578,8 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
-      <c r="U12" s="15"/>
-      <c r="W12" s="16" t="s">
+      <c r="U12" s="14"/>
+      <c r="W12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1551,8 +1589,8 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
-      <c r="U13" s="15"/>
-      <c r="W13" s="17" t="s">
+      <c r="U13" s="14"/>
+      <c r="W13" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1562,7 +1600,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="8"/>
-      <c r="U14" s="15"/>
+      <c r="U14" s="14"/>
     </row>
     <row r="15" ht="18.75" spans="1:24">
       <c r="A15" s="4">
@@ -1570,193 +1608,217 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="8"/>
-      <c r="U15" s="15"/>
-      <c r="X15" s="18" t="s">
+      <c r="U15" s="14"/>
+      <c r="X15" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:28">
+    <row r="16" ht="45" customHeight="1" spans="1:29">
       <c r="A16" s="4">
         <v>9</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="8"/>
-      <c r="U16" s="15"/>
-      <c r="X16" s="19" t="s">
+      <c r="U16" s="14"/>
+      <c r="X16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="19" t="s">
+      <c r="Y16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="Z16" s="19" t="s">
+      <c r="Z16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="19" t="s">
+      <c r="AA16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AB16" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="4">
         <v>10</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
-      <c r="U17" s="15"/>
-      <c r="X17" s="20">
+      <c r="U17" s="14"/>
+      <c r="X17" s="18">
         <v>1</v>
       </c>
-      <c r="Y17" s="20">
+      <c r="Y17" s="18">
         <v>1</v>
       </c>
-      <c r="Z17" s="20">
+      <c r="Z17" s="18">
         <v>100</v>
       </c>
-      <c r="AA17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB17" s="20" t="s">
+      <c r="AA17" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AB17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC17" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="4">
         <v>11</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
-      <c r="U18" s="15"/>
-      <c r="X18" s="20">
+      <c r="U18" s="14"/>
+      <c r="X18" s="18">
         <v>1</v>
       </c>
-      <c r="Y18" s="20">
+      <c r="Y18" s="18">
         <v>101</v>
       </c>
-      <c r="Z18" s="20">
+      <c r="Z18" s="18">
         <v>200</v>
       </c>
-      <c r="AA18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB18" s="20" t="s">
+      <c r="AA18" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AB18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC18" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="4">
         <v>12</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="8"/>
-      <c r="U19" s="15"/>
-      <c r="X19" s="20">
+      <c r="U19" s="14"/>
+      <c r="X19" s="18">
         <v>2</v>
       </c>
-      <c r="Y19" s="20">
+      <c r="Y19" s="18">
         <v>1</v>
       </c>
-      <c r="Z19" s="20">
+      <c r="Z19" s="18">
         <v>100</v>
       </c>
-      <c r="AA19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB19" s="20" t="s">
+      <c r="AA19" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AB19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC19" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="4">
         <v>13</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
-      <c r="U20" s="15"/>
-      <c r="X20" s="20">
+      <c r="U20" s="14"/>
+      <c r="X20" s="18">
         <v>2</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="18">
         <v>101</v>
       </c>
-      <c r="Z20" s="20">
+      <c r="Z20" s="18">
         <v>200</v>
       </c>
-      <c r="AA20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB20" s="20" t="s">
+      <c r="AA20" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AB20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC20" s="18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="4">
         <v>14</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
-      <c r="U21" s="15"/>
-      <c r="X21" s="20">
+      <c r="U21" s="14"/>
+      <c r="X21" s="18">
         <v>3</v>
       </c>
-      <c r="Y21" s="20">
+      <c r="Y21" s="18">
         <v>1</v>
       </c>
-      <c r="Z21" s="20">
+      <c r="Z21" s="18">
         <v>100</v>
       </c>
-      <c r="AA21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB21" s="20" t="s">
+      <c r="AA21" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AB21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC21" s="18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="4">
         <v>15</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="8"/>
-      <c r="U22" s="15"/>
-      <c r="X22" s="20">
+      <c r="U22" s="14"/>
+      <c r="X22" s="18">
         <v>3</v>
       </c>
-      <c r="Y22" s="20">
+      <c r="Y22" s="18">
         <v>101</v>
       </c>
-      <c r="Z22" s="20">
+      <c r="Z22" s="18">
         <v>200</v>
       </c>
-      <c r="AA22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB22" s="20" t="s">
+      <c r="AA22" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AB22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC22" s="18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="4">
         <v>16</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="8"/>
-      <c r="U23" s="15"/>
-      <c r="X23" s="20">
+      <c r="U23" s="14"/>
+      <c r="X23" s="18">
         <v>3</v>
       </c>
-      <c r="Y23" s="20">
+      <c r="Y23" s="18">
         <v>201</v>
       </c>
-      <c r="Z23" s="20">
+      <c r="Z23" s="18">
         <v>300</v>
       </c>
-      <c r="AA23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB23" s="20" t="s">
+      <c r="AA23" s="18" t="s">
         <v>36</v>
+      </c>
+      <c r="AB23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC23" s="18">
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1765,7 +1827,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="8"/>
-      <c r="U24" s="15"/>
+      <c r="U24" s="14"/>
     </row>
     <row r="25" ht="18.75" spans="1:24">
       <c r="A25" s="4">
@@ -1773,9 +1835,9 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="8"/>
-      <c r="U25" s="15"/>
-      <c r="X25" s="18" t="s">
-        <v>37</v>
+      <c r="U25" s="14"/>
+      <c r="X25" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="28.5" spans="1:27">
@@ -1784,18 +1846,18 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="8"/>
-      <c r="U26" s="15"/>
-      <c r="X26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y26" s="19" t="s">
+      <c r="U26" s="14"/>
+      <c r="X26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Z26" s="19" t="s">
+      <c r="Y26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AA26" s="22" t="s">
+      <c r="Z26" s="17" t="s">
         <v>41</v>
+      </c>
+      <c r="AA26" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -1804,18 +1866,18 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="8"/>
-      <c r="U27" s="15"/>
-      <c r="X27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y27" s="20">
+      <c r="U27" s="14"/>
+      <c r="X27" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y27" s="18">
         <v>1</v>
       </c>
-      <c r="Z27" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA27" s="21" t="s">
+      <c r="Z27" s="18" t="s">
         <v>44</v>
+      </c>
+      <c r="AA27" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:27">
@@ -1841,18 +1903,18 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="15"/>
-      <c r="X28" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y28" s="20">
+      <c r="U28" s="14"/>
+      <c r="X28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y28" s="18">
         <v>2</v>
       </c>
-      <c r="Z28" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA28" s="21" t="s">
+      <c r="Z28" s="18" t="s">
         <v>47</v>
+      </c>
+      <c r="AA28" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:27">
@@ -1861,18 +1923,18 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="8"/>
-      <c r="U29" s="15"/>
-      <c r="X29" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y29" s="20">
+      <c r="U29" s="14"/>
+      <c r="X29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y29" s="18">
         <v>3</v>
       </c>
-      <c r="Z29" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA29" s="21" t="s">
-        <v>49</v>
+      <c r="Z29" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA29" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -1881,18 +1943,18 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="8"/>
-      <c r="U30" s="15"/>
-      <c r="X30" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y30" s="20">
+      <c r="U30" s="14"/>
+      <c r="X30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y30" s="18">
         <v>4</v>
       </c>
-      <c r="Z30" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA30" s="21" t="s">
-        <v>51</v>
+      <c r="Z30" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA30" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -1901,42 +1963,51 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="8"/>
-      <c r="U31" s="15"/>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="U31" s="14"/>
+    </row>
+    <row r="32" ht="18.75" spans="1:24">
       <c r="A32" s="4">
         <v>25</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="8"/>
-      <c r="U32" s="15"/>
-    </row>
-    <row r="33" ht="18.75" spans="1:24">
+      <c r="U32" s="14"/>
+      <c r="X32" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" ht="28.5" spans="1:26">
       <c r="A33" s="4">
         <v>26</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="8"/>
-      <c r="U33" s="15"/>
-      <c r="X33" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" ht="28.5" spans="1:26">
+      <c r="U33" s="14"/>
+      <c r="X33" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y33" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z33" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="4">
         <v>27</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="8"/>
-      <c r="U34" s="15"/>
-      <c r="X34" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y34" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z34" s="19" t="s">
-        <v>55</v>
+      <c r="U34" s="14"/>
+      <c r="X34" s="18">
+        <v>101</v>
+      </c>
+      <c r="Y34" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z34" s="20">
+        <v>50006000</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -1945,14 +2016,14 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="8"/>
-      <c r="U35" s="15"/>
-      <c r="X35" s="21">
-        <v>101</v>
-      </c>
-      <c r="Y35" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z35" s="23">
+      <c r="U35" s="14"/>
+      <c r="X35" s="18">
+        <v>102</v>
+      </c>
+      <c r="Y35" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z35" s="20">
         <v>50006000</v>
       </c>
     </row>
@@ -1962,14 +2033,14 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="8"/>
-      <c r="U36" s="15"/>
-      <c r="X36" s="21">
-        <v>102</v>
-      </c>
-      <c r="Y36" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z36" s="23">
+      <c r="U36" s="14"/>
+      <c r="X36" s="18">
+        <v>103</v>
+      </c>
+      <c r="Y36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z36" s="20">
         <v>50006000</v>
       </c>
     </row>
@@ -1979,14 +2050,14 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="8"/>
-      <c r="U37" s="15"/>
-      <c r="X37" s="21">
-        <v>103</v>
-      </c>
-      <c r="Y37" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z37" s="23">
+      <c r="U37" s="14"/>
+      <c r="X37" s="18">
+        <v>104</v>
+      </c>
+      <c r="Y37" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z37" s="20">
         <v>50006000</v>
       </c>
     </row>
@@ -1996,82 +2067,113 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="8"/>
-      <c r="U38" s="15"/>
-      <c r="X38" s="21">
-        <v>104</v>
-      </c>
-      <c r="Y38" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z38" s="23">
+      <c r="U38" s="14"/>
+      <c r="X38" s="18">
+        <v>105</v>
+      </c>
+      <c r="Y38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z38" s="20">
         <v>50006000</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:21">
       <c r="A39" s="4">
         <v>32</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="15"/>
-      <c r="X39" s="21">
-        <v>105</v>
-      </c>
-      <c r="Y39" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z39" s="23">
-        <v>50006000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="U39" s="14"/>
+    </row>
+    <row r="40" ht="18.75" spans="1:24">
       <c r="A40" s="4">
         <v>33</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="8"/>
-      <c r="U40" s="15"/>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="U40" s="14"/>
+      <c r="X40" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:29">
       <c r="A41" s="4">
         <v>34</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="8"/>
-      <c r="U41" s="15"/>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="U41" s="14"/>
+      <c r="X41" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y41" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z41" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA41" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB41" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC41" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" s="4">
         <v>35</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="8"/>
-      <c r="U42" s="15"/>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="U42" s="14"/>
+      <c r="X42" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y42" s="18">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA42" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB42" s="18">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" s="4">
         <v>36</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="8"/>
-      <c r="U43" s="15"/>
+      <c r="U43" s="14"/>
+      <c r="X43" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y43" s="18">
+        <v>6</v>
+      </c>
+      <c r="Z43" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA43" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB43" s="18">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="4">
@@ -2079,7 +2181,7 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="8"/>
-      <c r="U44" s="15"/>
+      <c r="U44" s="14"/>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="4">
@@ -2087,7 +2189,7 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="8"/>
-      <c r="U45" s="15"/>
+      <c r="U45" s="14"/>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="4">
@@ -2095,7 +2197,7 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="8"/>
-      <c r="U46" s="15"/>
+      <c r="U46" s="14"/>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="4">
@@ -2103,7 +2205,7 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="8"/>
-      <c r="U47" s="15"/>
+      <c r="U47" s="14"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="4">
@@ -2111,7 +2213,7 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="8"/>
-      <c r="U48" s="15"/>
+      <c r="U48" s="14"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="4">
@@ -2119,7 +2221,7 @@
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="8"/>
-      <c r="U49" s="15"/>
+      <c r="U49" s="14"/>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="4">
@@ -2127,7 +2229,7 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="8"/>
-      <c r="U50" s="15"/>
+      <c r="U50" s="14"/>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="4">
@@ -2135,7 +2237,7 @@
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="8"/>
-      <c r="U51" s="15"/>
+      <c r="U51" s="14"/>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="4">
@@ -2143,7 +2245,7 @@
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="8"/>
-      <c r="U52" s="15"/>
+      <c r="U52" s="14"/>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="4">
@@ -2151,7 +2253,7 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="8"/>
-      <c r="U53" s="15"/>
+      <c r="U53" s="14"/>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="4">
@@ -2159,7 +2261,7 @@
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="8"/>
-      <c r="U54" s="15"/>
+      <c r="U54" s="14"/>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="4">
@@ -2167,7 +2269,7 @@
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="8"/>
-      <c r="U55" s="15"/>
+      <c r="U55" s="14"/>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="4">
@@ -2175,7 +2277,7 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="8"/>
-      <c r="U56" s="15"/>
+      <c r="U56" s="14"/>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="4">
@@ -2183,7 +2285,7 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="8"/>
-      <c r="U57" s="15"/>
+      <c r="U57" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2214,7 +2316,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2227,14 +2329,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B3:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
